--- a/.main/pallet-db.xlsx
+++ b/.main/pallet-db.xlsx
@@ -1,78 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elvis\Documents\GitHub\yandiya-cbm-library\.main\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CDE3345-F67D-4D61-854A-6AB00F822C22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
   <sheets>
     <sheet name="pallet-details" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>length</t>
-  </si>
-  <si>
-    <t xml:space="preserve">width </t>
-  </si>
-  <si>
-    <t>height</t>
-  </si>
-  <si>
-    <t>maxWeight</t>
-  </si>
-  <si>
-    <t>standard-quarter</t>
-  </si>
-  <si>
-    <t>standard-half</t>
-  </si>
-  <si>
-    <t>standard</t>
-  </si>
-  <si>
-    <t>euro</t>
-  </si>
-  <si>
-    <t>euro-half</t>
-  </si>
-  <si>
-    <t>euro-quarter</t>
-  </si>
-  <si>
-    <t>cbm</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
+  <numFmts count="1">
+    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
+  </numFmts>
+  <fonts count="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -109,14 +50,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -441,206 +374,176 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F56"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2">
-        <v>120</v>
-      </c>
-      <c r="C2">
-        <v>120</v>
-      </c>
-      <c r="D2">
+    <row r="1">
+      <c r="A1" t="str">
+        <v>name</v>
+      </c>
+      <c r="B1" t="str">
+        <v>length</v>
+      </c>
+      <c r="C1" t="str">
+        <v xml:space="preserve">width </v>
+      </c>
+      <c r="D1" t="str">
+        <v>height</v>
+      </c>
+      <c r="E1" t="str">
+        <v>cbm</v>
+      </c>
+      <c r="F1" t="str">
+        <v>maxWeight</v>
+      </c>
+      <c r="G1" t="str">
+        <v>price</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>standard-quarter</v>
+      </c>
+      <c r="B2" t="str">
+        <v>120</v>
+      </c>
+      <c r="C2" t="str">
+        <v>120</v>
+      </c>
+      <c r="D2" t="str">
         <v>80</v>
       </c>
-      <c r="E2">
-        <v>1.1519999999999999</v>
-      </c>
-      <c r="F2">
+      <c r="E2" t="str">
+        <v>1.152</v>
+      </c>
+      <c r="F2" t="str">
         <v>300</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>120</v>
-      </c>
-      <c r="C3">
-        <v>120</v>
-      </c>
-      <c r="D3">
-        <v>120</v>
-      </c>
-      <c r="E3">
+      <c r="G2" t="str">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>standard-half</v>
+      </c>
+      <c r="B3" t="str">
+        <v>120</v>
+      </c>
+      <c r="C3" t="str">
+        <v>120</v>
+      </c>
+      <c r="D3" t="str">
+        <v>120</v>
+      </c>
+      <c r="E3" t="str">
         <v>1.728</v>
       </c>
-      <c r="F3">
+      <c r="F3" t="str">
         <v>600</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>120</v>
-      </c>
-      <c r="C4">
-        <v>120</v>
-      </c>
-      <c r="D4">
+      <c r="G3" t="str">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>standard</v>
+      </c>
+      <c r="B4" t="str">
+        <v>120</v>
+      </c>
+      <c r="C4" t="str">
+        <v>120</v>
+      </c>
+      <c r="D4" t="str">
         <v>220</v>
       </c>
-      <c r="E4">
-        <v>3.1680000000000001</v>
-      </c>
-      <c r="F4">
+      <c r="E4" t="str">
+        <v>3.168</v>
+      </c>
+      <c r="F4" t="str">
         <v>1200</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5">
+      <c r="G4" t="str">
+        <v>35.50</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>euro-quarter</v>
+      </c>
+      <c r="B5" t="str">
         <v>80</v>
       </c>
-      <c r="C5">
-        <v>120</v>
-      </c>
-      <c r="D5">
+      <c r="C5" t="str">
+        <v>120</v>
+      </c>
+      <c r="D5" t="str">
         <v>800</v>
       </c>
-      <c r="E5">
-        <v>0.76800000000000002</v>
-      </c>
-      <c r="F5">
+      <c r="E5" t="str">
+        <v>0.768</v>
+      </c>
+      <c r="F5" t="str">
         <v>300</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6">
+      <c r="G5" t="str">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>euro-half</v>
+      </c>
+      <c r="B6" t="str">
         <v>80</v>
       </c>
-      <c r="C6">
-        <v>120</v>
-      </c>
-      <c r="D6">
-        <v>120</v>
-      </c>
-      <c r="E6">
-        <v>1.1519999999999999</v>
-      </c>
-      <c r="F6">
+      <c r="C6" t="str">
+        <v>120</v>
+      </c>
+      <c r="D6" t="str">
+        <v>120</v>
+      </c>
+      <c r="E6" t="str">
+        <v>1.152</v>
+      </c>
+      <c r="F6" t="str">
         <v>600</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7">
+      <c r="G6" t="str">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>euro</v>
+      </c>
+      <c r="B7" t="str">
         <v>80</v>
       </c>
-      <c r="C7">
-        <v>120</v>
-      </c>
-      <c r="D7">
+      <c r="C7" t="str">
+        <v>120</v>
+      </c>
+      <c r="D7" t="str">
         <v>220</v>
       </c>
-      <c r="E7">
-        <v>2.1120000000000001</v>
-      </c>
-      <c r="F7">
+      <c r="E7" t="str">
+        <v>2.112</v>
+      </c>
+      <c r="F7" t="str">
         <v>1200</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="17" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="20" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="21" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="24" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="25" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="26" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="27" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="28" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="29" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="30" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="31" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="32" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="15.75" x14ac:dyDescent="0.25"/>
+      <c r="G7" t="str">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:G7"/>
+  </ignoredErrors>
 </worksheet>
 </file>